--- a/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>chr</t>
   </si>
@@ -66,18 +66,45 @@
     <t>chr7</t>
   </si>
   <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>chr4</t>
+  </si>
+  <si>
     <t>chr9</t>
   </si>
   <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr17</t>
+  </si>
+  <si>
     <t>PTCD1</t>
   </si>
   <si>
+    <t>SHOC2</t>
+  </si>
+  <si>
+    <t>MANBA</t>
+  </si>
+  <si>
     <t>DENND1A</t>
   </si>
   <si>
+    <t>ZC3H13</t>
+  </si>
+  <si>
+    <t>ZNF830</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -87,7 +114,19 @@
     <t>ENSG00000106246.18</t>
   </si>
   <si>
+    <t>ENSG00000108061.12</t>
+  </si>
+  <si>
+    <t>ENSG00000109323.11</t>
+  </si>
+  <si>
     <t>ENSG00000119522.16</t>
+  </si>
+  <si>
+    <t>ENSG00000123200.16</t>
+  </si>
+  <si>
+    <t>ENSG00000198783.6</t>
   </si>
   <si>
     <t>Exp.hl60.log2FC</t>
@@ -559,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,13 +662,13 @@
         <v>99434920</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>99434871</v>
@@ -644,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>-2.44506074123613</v>
@@ -656,7 +695,7 @@
         <v>0.000159002905570915</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -664,25 +703,25 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>123382442</v>
+        <v>110964329</v>
       </c>
       <c r="C3">
-        <v>123382491</v>
+        <v>110964378</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>123382442</v>
+        <v>110964329</v>
       </c>
       <c r="H3">
-        <v>123382491</v>
+        <v>110964378</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -691,19 +730,348 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>-0.670157662360492</v>
+      </c>
+      <c r="N3">
+        <v>0.00142630941784294</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>110964627</v>
+      </c>
+      <c r="C4">
+        <v>110964676</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>110964627</v>
+      </c>
+      <c r="H4">
+        <v>110964676</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>-1.04581410310116</v>
+      </c>
+      <c r="N4">
+        <v>0.00385467580397203</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>102631819</v>
+      </c>
+      <c r="C5">
+        <v>102631868</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>102631819</v>
+      </c>
+      <c r="H5">
+        <v>102631868</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>-1.43934892407579</v>
+      </c>
+      <c r="N5">
+        <v>0.00115198567844888</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>123382442</v>
+      </c>
+      <c r="C6">
+        <v>123382491</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>123382442</v>
+      </c>
+      <c r="H6">
+        <v>123382491</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>-3.95124371857206</v>
+      </c>
+      <c r="N6">
+        <v>0.00364506099174522</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>45957156</v>
+      </c>
+      <c r="C7">
+        <v>45957205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>45957156</v>
+      </c>
+      <c r="H7">
+        <v>45957205</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>-1.03798766685166</v>
+      </c>
+      <c r="N7">
+        <v>0.00255871276620678</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>45985452</v>
+      </c>
+      <c r="C8">
+        <v>45985501</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>45985452</v>
+      </c>
+      <c r="H8">
+        <v>45985501</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>-0.574448453863832</v>
+      </c>
+      <c r="N8">
+        <v>0.00155621658330796</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>-3.95124371857206</v>
-      </c>
-      <c r="N3">
-        <v>0.00364506099174522</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
+      <c r="B9">
+        <v>34962336</v>
+      </c>
+      <c r="C9">
+        <v>34962385</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>34962336</v>
+      </c>
+      <c r="H9">
+        <v>34962385</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>-1.43783818091252</v>
+      </c>
+      <c r="N9">
+        <v>0.00449982596546639</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>34962932</v>
+      </c>
+      <c r="C10">
+        <v>34962981</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>34962932</v>
+      </c>
+      <c r="H10">
+        <v>34962981</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>-1.30854560824551</v>
+      </c>
+      <c r="N10">
+        <v>0.0007863107863805839</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,170 +1089,466 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>-0.344</v>
+        <v>-0.46</v>
       </c>
       <c r="C2">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.062</v>
+        <v>1.101</v>
       </c>
       <c r="E2">
-        <v>0.8100000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="F2">
-        <v>-0.334</v>
+        <v>-0.113</v>
       </c>
       <c r="G2">
-        <v>0.166</v>
+        <v>0.785</v>
       </c>
       <c r="H2">
-        <v>-0.037</v>
+        <v>-0.249</v>
       </c>
       <c r="I2">
-        <v>0.89</v>
+        <v>0.488</v>
       </c>
       <c r="J2">
-        <v>-0.408</v>
+        <v>-0.251</v>
       </c>
       <c r="K2">
-        <v>0.102</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>-0.762</v>
+        <v>0.073</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.474</v>
-      </c>
-      <c r="AA2">
-        <v>0.6889999999999999</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>-0.46</v>
+        <v>-0.314</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="D3">
-        <v>1.101</v>
+        <v>-0.455</v>
       </c>
       <c r="E3">
-        <v>0.002</v>
+        <v>0.033</v>
       </c>
       <c r="F3">
-        <v>-0.113</v>
+        <v>-0.073</v>
       </c>
       <c r="G3">
-        <v>0.785</v>
+        <v>0.779</v>
       </c>
       <c r="H3">
-        <v>-0.249</v>
+        <v>0.222</v>
       </c>
       <c r="I3">
-        <v>0.488</v>
+        <v>0.415</v>
       </c>
       <c r="J3">
-        <v>-0.251</v>
+        <v>-0.203</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="L3">
-        <v>0.073</v>
+        <v>-0.336</v>
       </c>
       <c r="M3">
-        <v>0.884</v>
+        <v>0.129</v>
+      </c>
+      <c r="Z3">
+        <v>0.116</v>
+      </c>
+      <c r="AA3">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>-0.197</v>
+      </c>
+      <c r="C4">
+        <v>0.001</v>
+      </c>
+      <c r="D4">
+        <v>-0.038</v>
+      </c>
+      <c r="E4">
+        <v>0.852</v>
+      </c>
+      <c r="F4">
+        <v>-0.194</v>
+      </c>
+      <c r="G4">
+        <v>0.276</v>
+      </c>
+      <c r="H4">
+        <v>-0.635</v>
+      </c>
+      <c r="I4">
+        <v>0.037</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>0.914</v>
+      </c>
+      <c r="L4">
+        <v>-0.182</v>
+      </c>
+      <c r="M4">
+        <v>0.359</v>
+      </c>
+      <c r="N4">
+        <v>0.431</v>
+      </c>
+      <c r="O4">
+        <v>0.005</v>
+      </c>
+      <c r="P4">
+        <v>0.055</v>
+      </c>
+      <c r="Q4">
+        <v>0.703</v>
+      </c>
+      <c r="R4">
+        <v>-0.059</v>
+      </c>
+      <c r="S4">
+        <v>0.654</v>
+      </c>
+      <c r="T4">
+        <v>-0.2</v>
+      </c>
+      <c r="U4">
+        <v>0.057</v>
+      </c>
+      <c r="V4">
+        <v>0.221</v>
+      </c>
+      <c r="W4">
+        <v>0.116</v>
+      </c>
+      <c r="X4">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.589</v>
+      </c>
+      <c r="Z4">
+        <v>-0.401</v>
+      </c>
+      <c r="AA4">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>-0.423</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>0.199</v>
+      </c>
+      <c r="E5">
+        <v>0.514</v>
+      </c>
+      <c r="F5">
+        <v>-0.064</v>
+      </c>
+      <c r="G5">
+        <v>0.765</v>
+      </c>
+      <c r="H5">
+        <v>-0.006</v>
+      </c>
+      <c r="I5">
+        <v>0.981</v>
+      </c>
+      <c r="J5">
+        <v>0.38</v>
+      </c>
+      <c r="K5">
+        <v>0.194</v>
+      </c>
+      <c r="L5">
+        <v>-0.154</v>
+      </c>
+      <c r="M5">
+        <v>0.516</v>
+      </c>
+      <c r="N5">
+        <v>-0.037</v>
+      </c>
+      <c r="O5">
+        <v>0.882</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5">
+        <v>0.894</v>
+      </c>
+      <c r="R5">
+        <v>-0.047</v>
+      </c>
+      <c r="S5">
+        <v>0.694</v>
+      </c>
+      <c r="T5">
+        <v>-0.155</v>
+      </c>
+      <c r="U5">
+        <v>0.337</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0.618</v>
+      </c>
+      <c r="X5">
+        <v>0.012</v>
+      </c>
+      <c r="Y5">
+        <v>0.948</v>
+      </c>
+      <c r="Z5">
+        <v>0.077</v>
+      </c>
+      <c r="AA5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>-0.537</v>
+      </c>
+      <c r="C6">
+        <v>0.006</v>
+      </c>
+      <c r="D6">
+        <v>-0.004</v>
+      </c>
+      <c r="E6">
+        <v>0.982</v>
+      </c>
+      <c r="F6">
+        <v>0.298</v>
+      </c>
+      <c r="G6">
+        <v>0.245</v>
+      </c>
+      <c r="H6">
+        <v>0.064</v>
+      </c>
+      <c r="I6">
+        <v>0.784</v>
+      </c>
+      <c r="J6">
+        <v>0.036</v>
+      </c>
+      <c r="K6">
+        <v>0.903</v>
+      </c>
+      <c r="L6">
+        <v>-0.182</v>
+      </c>
+      <c r="M6">
+        <v>0.277</v>
+      </c>
+      <c r="N6">
+        <v>0.201</v>
+      </c>
+      <c r="O6">
+        <v>0.273</v>
+      </c>
+      <c r="P6">
+        <v>0.198</v>
+      </c>
+      <c r="Q6">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R6">
+        <v>-0.065</v>
+      </c>
+      <c r="S6">
+        <v>0.746</v>
+      </c>
+      <c r="T6">
+        <v>0.323</v>
+      </c>
+      <c r="U6">
+        <v>0.06</v>
+      </c>
+      <c r="V6">
+        <v>0.55</v>
+      </c>
+      <c r="W6">
+        <v>0.001</v>
+      </c>
+      <c r="X6">
+        <v>0.175</v>
+      </c>
+      <c r="Y6">
+        <v>0.061</v>
+      </c>
+      <c r="Z6">
+        <v>0.219</v>
+      </c>
+      <c r="AA6">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>-0.344</v>
+      </c>
+      <c r="C7">
+        <v>0.018</v>
+      </c>
+      <c r="D7">
+        <v>-0.062</v>
+      </c>
+      <c r="E7">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.334</v>
+      </c>
+      <c r="G7">
+        <v>0.166</v>
+      </c>
+      <c r="H7">
+        <v>-0.037</v>
+      </c>
+      <c r="I7">
+        <v>0.89</v>
+      </c>
+      <c r="J7">
+        <v>-0.408</v>
+      </c>
+      <c r="K7">
+        <v>0.102</v>
+      </c>
+      <c r="L7">
+        <v>-0.762</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.474</v>
+      </c>
+      <c r="AA7">
+        <v>0.6889999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -905,122 +1569,286 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.104</v>
+        <v>0.16</v>
       </c>
       <c r="C2">
-        <v>0.546</v>
+        <v>0.099</v>
       </c>
       <c r="D2">
-        <v>0.112</v>
+        <v>0.194</v>
       </c>
       <c r="E2">
-        <v>0.158</v>
+        <v>0.023</v>
       </c>
       <c r="F2">
-        <v>0.092</v>
+        <v>0.166</v>
       </c>
       <c r="G2">
-        <v>0.304</v>
+        <v>0.028</v>
       </c>
       <c r="H2">
-        <v>-0.057</v>
+        <v>-0.083</v>
       </c>
       <c r="I2">
-        <v>0.977</v>
+        <v>0.015</v>
       </c>
       <c r="J2">
-        <v>-0.022</v>
+        <v>-0.198</v>
       </c>
       <c r="K2">
-        <v>0.892</v>
+        <v>0.001</v>
       </c>
       <c r="L2">
-        <v>-0.022</v>
+        <v>-0.198</v>
       </c>
       <c r="M2">
-        <v>0.892</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0.16</v>
+        <v>0.129</v>
       </c>
       <c r="C3">
-        <v>0.099</v>
+        <v>0.096</v>
       </c>
       <c r="D3">
-        <v>0.194</v>
+        <v>0.203</v>
       </c>
       <c r="E3">
-        <v>0.023</v>
+        <v>0.226</v>
       </c>
       <c r="F3">
-        <v>0.166</v>
+        <v>0.048</v>
       </c>
       <c r="G3">
-        <v>0.028</v>
+        <v>0.51</v>
       </c>
       <c r="H3">
-        <v>-0.083</v>
+        <v>-0.277</v>
       </c>
       <c r="I3">
-        <v>0.015</v>
+        <v>0.042</v>
       </c>
       <c r="J3">
-        <v>-0.198</v>
+        <v>-0.09</v>
       </c>
       <c r="K3">
+        <v>0.128</v>
+      </c>
+      <c r="L3">
+        <v>-0.09</v>
+      </c>
+      <c r="M3">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.603</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.365</v>
+      </c>
+      <c r="E4">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.676</v>
+      </c>
+      <c r="G4">
+        <v>0.494</v>
+      </c>
+      <c r="H4">
+        <v>-0.351</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-0.644</v>
+      </c>
+      <c r="K4">
         <v>0.001</v>
       </c>
-      <c r="L3">
-        <v>-0.198</v>
-      </c>
-      <c r="M3">
+      <c r="L4">
+        <v>-0.644</v>
+      </c>
+      <c r="M4">
         <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.283</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.216</v>
+      </c>
+      <c r="E5">
+        <v>0.058</v>
+      </c>
+      <c r="F5">
+        <v>0.379</v>
+      </c>
+      <c r="G5">
+        <v>0.005</v>
+      </c>
+      <c r="H5">
+        <v>-0.102</v>
+      </c>
+      <c r="I5">
+        <v>0.001</v>
+      </c>
+      <c r="J5">
+        <v>-0.156</v>
+      </c>
+      <c r="K5">
+        <v>0.046</v>
+      </c>
+      <c r="L5">
+        <v>-0.156</v>
+      </c>
+      <c r="M5">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.103</v>
+      </c>
+      <c r="C6">
+        <v>0.022</v>
+      </c>
+      <c r="D6">
+        <v>0.184</v>
+      </c>
+      <c r="E6">
+        <v>0.016</v>
+      </c>
+      <c r="F6">
+        <v>0.163</v>
+      </c>
+      <c r="G6">
+        <v>0.138</v>
+      </c>
+      <c r="H6">
+        <v>-0.014</v>
+      </c>
+      <c r="I6">
+        <v>0.371</v>
+      </c>
+      <c r="J6">
+        <v>-0.056</v>
+      </c>
+      <c r="K6">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="L6">
+        <v>-0.056</v>
+      </c>
+      <c r="M6">
+        <v>0.6889999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.104</v>
+      </c>
+      <c r="C7">
+        <v>0.546</v>
+      </c>
+      <c r="D7">
+        <v>0.112</v>
+      </c>
+      <c r="E7">
+        <v>0.158</v>
+      </c>
+      <c r="F7">
+        <v>0.092</v>
+      </c>
+      <c r="G7">
+        <v>0.304</v>
+      </c>
+      <c r="H7">
+        <v>-0.057</v>
+      </c>
+      <c r="I7">
+        <v>0.977</v>
+      </c>
+      <c r="J7">
+        <v>-0.022</v>
+      </c>
+      <c r="K7">
+        <v>0.892</v>
+      </c>
+      <c r="L7">
+        <v>-0.022</v>
+      </c>
+      <c r="M7">
+        <v>0.892</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>chr</t>
   </si>
@@ -163,42 +163,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -1081,13 +1045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1130,220 +1094,154 @@
       <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>-0.46</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D2">
-        <v>1.101</v>
+        <v>-0.038</v>
       </c>
       <c r="E2">
-        <v>0.002</v>
+        <v>0.852</v>
       </c>
       <c r="F2">
-        <v>-0.113</v>
+        <v>-0.194</v>
       </c>
       <c r="G2">
-        <v>0.785</v>
+        <v>0.276</v>
       </c>
       <c r="H2">
-        <v>-0.249</v>
+        <v>-0.635</v>
       </c>
       <c r="I2">
-        <v>0.488</v>
+        <v>0.037</v>
       </c>
       <c r="J2">
-        <v>-0.251</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.914</v>
       </c>
       <c r="L2">
-        <v>0.073</v>
+        <v>-0.182</v>
       </c>
       <c r="M2">
-        <v>0.884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0.359</v>
+      </c>
+      <c r="N2">
+        <v>-0.401</v>
+      </c>
+      <c r="O2">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>-0.344</v>
+      </c>
+      <c r="C3">
+        <v>0.018</v>
+      </c>
+      <c r="D3">
+        <v>-0.062</v>
+      </c>
+      <c r="E3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F3">
+        <v>-0.334</v>
+      </c>
+      <c r="G3">
+        <v>0.166</v>
+      </c>
+      <c r="H3">
+        <v>-0.037</v>
+      </c>
+      <c r="I3">
+        <v>0.89</v>
+      </c>
+      <c r="J3">
+        <v>-0.408</v>
+      </c>
+      <c r="K3">
+        <v>0.102</v>
+      </c>
+      <c r="L3">
+        <v>-0.762</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.474</v>
+      </c>
+      <c r="O3">
+        <v>0.6889999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-0.314</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.006</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-0.455</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.033</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-0.073</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>0.779</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0.222</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>0.415</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>-0.203</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.444</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-0.336</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>0.129</v>
       </c>
-      <c r="Z3">
+      <c r="N4">
         <v>0.116</v>
       </c>
-      <c r="AA3">
+      <c r="O4">
         <v>0.945</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>-0.197</v>
-      </c>
-      <c r="C4">
-        <v>0.001</v>
-      </c>
-      <c r="D4">
-        <v>-0.038</v>
-      </c>
-      <c r="E4">
-        <v>0.852</v>
-      </c>
-      <c r="F4">
-        <v>-0.194</v>
-      </c>
-      <c r="G4">
-        <v>0.276</v>
-      </c>
-      <c r="H4">
-        <v>-0.635</v>
-      </c>
-      <c r="I4">
-        <v>0.037</v>
-      </c>
-      <c r="J4">
-        <v>0.02</v>
-      </c>
-      <c r="K4">
-        <v>0.914</v>
-      </c>
-      <c r="L4">
-        <v>-0.182</v>
-      </c>
-      <c r="M4">
-        <v>0.359</v>
-      </c>
-      <c r="N4">
-        <v>0.431</v>
-      </c>
-      <c r="O4">
-        <v>0.005</v>
-      </c>
-      <c r="P4">
-        <v>0.055</v>
-      </c>
-      <c r="Q4">
-        <v>0.703</v>
-      </c>
-      <c r="R4">
-        <v>-0.059</v>
-      </c>
-      <c r="S4">
-        <v>0.654</v>
-      </c>
-      <c r="T4">
-        <v>-0.2</v>
-      </c>
-      <c r="U4">
-        <v>0.057</v>
-      </c>
-      <c r="V4">
-        <v>0.221</v>
-      </c>
-      <c r="W4">
-        <v>0.116</v>
-      </c>
-      <c r="X4">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="Y4">
-        <v>0.589</v>
-      </c>
-      <c r="Z4">
-        <v>-0.401</v>
-      </c>
-      <c r="AA4">
-        <v>0.5639999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>-0.423</v>
+        <v>-1.391</v>
       </c>
       <c r="C5">
         <v>0.01</v>
@@ -1379,54 +1277,18 @@
         <v>0.516</v>
       </c>
       <c r="N5">
-        <v>-0.037</v>
+        <v>0.077</v>
       </c>
       <c r="O5">
-        <v>0.882</v>
-      </c>
-      <c r="P5">
-        <v>0.02</v>
-      </c>
-      <c r="Q5">
-        <v>0.894</v>
-      </c>
-      <c r="R5">
-        <v>-0.047</v>
-      </c>
-      <c r="S5">
-        <v>0.694</v>
-      </c>
-      <c r="T5">
-        <v>-0.155</v>
-      </c>
-      <c r="U5">
-        <v>0.337</v>
-      </c>
-      <c r="V5">
-        <v>0.1</v>
-      </c>
-      <c r="W5">
-        <v>0.618</v>
-      </c>
-      <c r="X5">
-        <v>0.012</v>
-      </c>
-      <c r="Y5">
-        <v>0.948</v>
-      </c>
-      <c r="Z5">
-        <v>0.077</v>
-      </c>
-      <c r="AA5">
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6">
-        <v>-0.537</v>
+        <v>-0.347</v>
       </c>
       <c r="C6">
         <v>0.006</v>
@@ -1462,93 +1324,51 @@
         <v>0.277</v>
       </c>
       <c r="N6">
-        <v>0.201</v>
+        <v>0.219</v>
       </c>
       <c r="O6">
-        <v>0.273</v>
-      </c>
-      <c r="P6">
-        <v>0.198</v>
-      </c>
-      <c r="Q6">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R6">
-        <v>-0.065</v>
-      </c>
-      <c r="S6">
-        <v>0.746</v>
-      </c>
-      <c r="T6">
-        <v>0.323</v>
-      </c>
-      <c r="U6">
-        <v>0.06</v>
-      </c>
-      <c r="V6">
-        <v>0.55</v>
-      </c>
-      <c r="W6">
-        <v>0.001</v>
-      </c>
-      <c r="X6">
-        <v>0.175</v>
-      </c>
-      <c r="Y6">
-        <v>0.061</v>
-      </c>
-      <c r="Z6">
-        <v>0.219</v>
-      </c>
-      <c r="AA6">
         <v>0.751</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.344</v>
+        <v>-0.213</v>
       </c>
       <c r="C7">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.062</v>
+        <v>1.101</v>
       </c>
       <c r="E7">
-        <v>0.8100000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="F7">
-        <v>-0.334</v>
+        <v>-0.113</v>
       </c>
       <c r="G7">
-        <v>0.166</v>
+        <v>0.785</v>
       </c>
       <c r="H7">
-        <v>-0.037</v>
+        <v>-0.249</v>
       </c>
       <c r="I7">
-        <v>0.89</v>
+        <v>0.488</v>
       </c>
       <c r="J7">
-        <v>-0.408</v>
+        <v>-0.251</v>
       </c>
       <c r="K7">
-        <v>0.102</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>-0.762</v>
+        <v>0.073</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0.474</v>
-      </c>
-      <c r="AA7">
-        <v>0.6889999999999999</v>
+        <v>0.884</v>
       </c>
     </row>
   </sheetData>
@@ -1569,78 +1389,78 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.603</v>
       </c>
       <c r="C2">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.194</v>
+        <v>0.365</v>
       </c>
       <c r="E2">
-        <v>0.023</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F2">
-        <v>0.166</v>
+        <v>0.676</v>
       </c>
       <c r="G2">
-        <v>0.028</v>
+        <v>0.494</v>
       </c>
       <c r="H2">
-        <v>-0.083</v>
+        <v>-0.351</v>
       </c>
       <c r="I2">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.198</v>
+        <v>-0.644</v>
       </c>
       <c r="K2">
         <v>0.001</v>
       </c>
       <c r="L2">
-        <v>-0.198</v>
+        <v>-0.644</v>
       </c>
       <c r="M2">
         <v>0.001</v>
@@ -1648,84 +1468,84 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>0.129</v>
+        <v>0.104</v>
       </c>
       <c r="C3">
-        <v>0.096</v>
+        <v>0.546</v>
       </c>
       <c r="D3">
-        <v>0.203</v>
+        <v>0.112</v>
       </c>
       <c r="E3">
-        <v>0.226</v>
+        <v>0.158</v>
       </c>
       <c r="F3">
-        <v>0.048</v>
+        <v>0.092</v>
       </c>
       <c r="G3">
-        <v>0.51</v>
+        <v>0.304</v>
       </c>
       <c r="H3">
-        <v>-0.277</v>
+        <v>-0.057</v>
       </c>
       <c r="I3">
-        <v>0.042</v>
+        <v>0.977</v>
       </c>
       <c r="J3">
-        <v>-0.09</v>
+        <v>-0.022</v>
       </c>
       <c r="K3">
-        <v>0.128</v>
+        <v>0.892</v>
       </c>
       <c r="L3">
-        <v>-0.09</v>
+        <v>-0.022</v>
       </c>
       <c r="M3">
-        <v>0.128</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0.603</v>
+        <v>0.129</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="D4">
-        <v>0.365</v>
+        <v>0.203</v>
       </c>
       <c r="E4">
-        <v>0.08699999999999999</v>
+        <v>0.226</v>
       </c>
       <c r="F4">
-        <v>0.676</v>
+        <v>0.048</v>
       </c>
       <c r="G4">
-        <v>0.494</v>
+        <v>0.51</v>
       </c>
       <c r="H4">
-        <v>-0.351</v>
+        <v>-0.277</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="J4">
-        <v>-0.644</v>
+        <v>-0.09</v>
       </c>
       <c r="K4">
-        <v>0.001</v>
+        <v>0.128</v>
       </c>
       <c r="L4">
-        <v>-0.644</v>
+        <v>-0.09</v>
       </c>
       <c r="M4">
-        <v>0.001</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1812,43 +1632,43 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>0.104</v>
+        <v>0.16</v>
       </c>
       <c r="C7">
-        <v>0.546</v>
+        <v>0.099</v>
       </c>
       <c r="D7">
-        <v>0.112</v>
+        <v>0.194</v>
       </c>
       <c r="E7">
-        <v>0.158</v>
+        <v>0.023</v>
       </c>
       <c r="F7">
-        <v>0.092</v>
+        <v>0.166</v>
       </c>
       <c r="G7">
-        <v>0.304</v>
+        <v>0.028</v>
       </c>
       <c r="H7">
-        <v>-0.057</v>
+        <v>-0.083</v>
       </c>
       <c r="I7">
-        <v>0.977</v>
+        <v>0.015</v>
       </c>
       <c r="J7">
-        <v>-0.022</v>
+        <v>-0.198</v>
       </c>
       <c r="K7">
-        <v>0.892</v>
+        <v>0.001</v>
       </c>
       <c r="L7">
-        <v>-0.022</v>
+        <v>-0.198</v>
       </c>
       <c r="M7">
-        <v>0.892</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_up & Exp_down & Hypo_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>chr</t>
   </si>
@@ -63,70 +63,55 @@
     <t>ensembl</t>
   </si>
   <si>
+    <t>chr8</t>
+  </si>
+  <si>
+    <t>chr19</t>
+  </si>
+  <si>
     <t>chr7</t>
   </si>
   <si>
-    <t>chr10</t>
-  </si>
-  <si>
-    <t>chr4</t>
-  </si>
-  <si>
-    <t>chr9</t>
-  </si>
-  <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr17</t>
-  </si>
-  <si>
-    <t>PTCD1</t>
-  </si>
-  <si>
-    <t>SHOC2</t>
-  </si>
-  <si>
-    <t>MANBA</t>
-  </si>
-  <si>
-    <t>DENND1A</t>
-  </si>
-  <si>
-    <t>ZC3H13</t>
-  </si>
-  <si>
-    <t>ZNF830</t>
+    <t>FDFT1</t>
+  </si>
+  <si>
+    <t>KLF16</t>
+  </si>
+  <si>
+    <t>ZNF787</t>
+  </si>
+  <si>
+    <t>MIOS</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>+</t>
+    <t>32,67</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
+    <t>0,6625</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>ENSG00000106246.18</t>
-  </si>
-  <si>
-    <t>ENSG00000108061.12</t>
-  </si>
-  <si>
-    <t>ENSG00000109323.11</t>
-  </si>
-  <si>
-    <t>ENSG00000119522.16</t>
-  </si>
-  <si>
-    <t>ENSG00000123200.16</t>
-  </si>
-  <si>
-    <t>ENSG00000198783.6</t>
+    <t>ENSG00000079459.13</t>
+  </si>
+  <si>
+    <t>ENSG00000129911.9</t>
+  </si>
+  <si>
+    <t>ENSG00000142409.6</t>
+  </si>
+  <si>
+    <t>ENSG00000164654.16</t>
   </si>
   <si>
     <t>Exp.hl60.log2FC</t>
@@ -562,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,46 +605,46 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>99434871</v>
+        <v>11831763</v>
       </c>
       <c r="C2">
-        <v>99434920</v>
+        <v>11838454</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>99434871</v>
+        <v>11831763</v>
       </c>
       <c r="H2">
-        <v>99434920</v>
+        <v>11838454</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>-2.44506074123613</v>
+        <v>-4.57985237784278</v>
       </c>
       <c r="N2">
-        <v>0.000159002905570915</v>
+        <v>1.04091754303484E-05</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -667,25 +652,25 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>110964329</v>
+        <v>1854475</v>
       </c>
       <c r="C3">
-        <v>110964378</v>
+        <v>1854524</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>110964329</v>
+        <v>1854475</v>
       </c>
       <c r="H3">
-        <v>110964378</v>
+        <v>1854524</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -694,19 +679,19 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>-1.84054963339749</v>
+      </c>
+      <c r="N3">
+        <v>0.000273844330500483</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>-0.670157662360492</v>
-      </c>
-      <c r="N3">
-        <v>0.00142630941784294</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -714,25 +699,25 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>110964627</v>
+        <v>1854574</v>
       </c>
       <c r="C4">
-        <v>110964676</v>
+        <v>1854623</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>110964627</v>
+        <v>1854574</v>
       </c>
       <c r="H4">
-        <v>110964676</v>
+        <v>1854623</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -741,45 +726,45 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>2.96398357523936</v>
+      </c>
+      <c r="N4">
+        <v>0.00435014396607925</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>-1.04581410310116</v>
-      </c>
-      <c r="N4">
-        <v>0.00385467580397203</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>102631819</v>
+        <v>56087814</v>
       </c>
       <c r="C5">
-        <v>102631868</v>
+        <v>56087863</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>102631819</v>
+        <v>56087814</v>
       </c>
       <c r="H5">
-        <v>102631868</v>
+        <v>56087863</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -788,45 +773,45 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>-1.59127394180541</v>
+      </c>
+      <c r="N5">
+        <v>0.00353968955318717</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
-      </c>
-      <c r="M5">
-        <v>-1.43934892407579</v>
-      </c>
-      <c r="N5">
-        <v>0.00115198567844888</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>123382442</v>
+        <v>7573414</v>
       </c>
       <c r="C6">
-        <v>123382491</v>
+        <v>7573463</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>123382442</v>
+        <v>7573414</v>
       </c>
       <c r="H6">
-        <v>123382491</v>
+        <v>7573463</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -835,207 +820,19 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>-3.95124371857206</v>
+        <v>-1.89154893983387</v>
       </c>
       <c r="N6">
-        <v>0.00364506099174522</v>
+        <v>0.0044283860409291</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>45957156</v>
-      </c>
-      <c r="C7">
-        <v>45957205</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>45957156</v>
-      </c>
-      <c r="H7">
-        <v>45957205</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>-1.03798766685166</v>
-      </c>
-      <c r="N7">
-        <v>0.00255871276620678</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>45985452</v>
-      </c>
-      <c r="C8">
-        <v>45985501</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>45985452</v>
-      </c>
-      <c r="H8">
-        <v>45985501</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>-0.574448453863832</v>
-      </c>
-      <c r="N8">
-        <v>0.00155621658330796</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>34962336</v>
-      </c>
-      <c r="C9">
-        <v>34962385</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>34962336</v>
-      </c>
-      <c r="H9">
-        <v>34962385</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>-1.43783818091252</v>
-      </c>
-      <c r="N9">
-        <v>0.00449982596546639</v>
-      </c>
-      <c r="O9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>34962932</v>
-      </c>
-      <c r="C10">
-        <v>34962981</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>34962932</v>
-      </c>
-      <c r="H10">
-        <v>34962981</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10">
-        <v>-1.30854560824551</v>
-      </c>
-      <c r="N10">
-        <v>0.0007863107863805839</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1053,322 +850,234 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>-0.8149999999999999</v>
+        <v>-0.407</v>
       </c>
       <c r="C2">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D2">
-        <v>-0.038</v>
+        <v>-0.133</v>
       </c>
       <c r="E2">
-        <v>0.852</v>
+        <v>0.492</v>
       </c>
       <c r="F2">
-        <v>-0.194</v>
+        <v>-0.141</v>
       </c>
       <c r="G2">
-        <v>0.276</v>
+        <v>0.513</v>
       </c>
       <c r="H2">
-        <v>-0.635</v>
+        <v>-0.047</v>
       </c>
       <c r="I2">
-        <v>0.037</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.293</v>
       </c>
       <c r="K2">
-        <v>0.914</v>
+        <v>0.146</v>
       </c>
       <c r="L2">
-        <v>-0.182</v>
+        <v>0.373</v>
       </c>
       <c r="M2">
-        <v>0.359</v>
+        <v>0.066</v>
       </c>
       <c r="N2">
-        <v>-0.401</v>
+        <v>-0.26</v>
       </c>
       <c r="O2">
-        <v>0.5639999999999999</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>-0.344</v>
+        <v>-1.002</v>
       </c>
       <c r="C3">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.062</v>
+        <v>-0.394</v>
       </c>
       <c r="E3">
-        <v>0.8100000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="F3">
-        <v>-0.334</v>
+        <v>-0.138</v>
       </c>
       <c r="G3">
-        <v>0.166</v>
+        <v>0.664</v>
       </c>
       <c r="H3">
-        <v>-0.037</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="I3">
-        <v>0.89</v>
+        <v>0.701</v>
       </c>
       <c r="J3">
-        <v>-0.408</v>
+        <v>-0.279</v>
       </c>
       <c r="K3">
-        <v>0.102</v>
+        <v>0.267</v>
       </c>
       <c r="L3">
-        <v>-0.762</v>
+        <v>-0.201</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="N3">
-        <v>0.474</v>
+        <v>0.504</v>
       </c>
       <c r="O3">
-        <v>0.6889999999999999</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>-0.314</v>
+        <v>-1.046</v>
       </c>
       <c r="C4">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="D4">
-        <v>-0.455</v>
+        <v>0.048</v>
       </c>
       <c r="E4">
-        <v>0.033</v>
+        <v>0.858</v>
       </c>
       <c r="F4">
-        <v>-0.073</v>
+        <v>-0.354</v>
       </c>
       <c r="G4">
-        <v>0.779</v>
+        <v>0.238</v>
       </c>
       <c r="H4">
-        <v>0.222</v>
+        <v>0.113</v>
       </c>
       <c r="I4">
-        <v>0.415</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J4">
-        <v>-0.203</v>
+        <v>-0.36</v>
       </c>
       <c r="K4">
-        <v>0.444</v>
+        <v>0.308</v>
       </c>
       <c r="L4">
-        <v>-0.336</v>
+        <v>-0.433</v>
       </c>
       <c r="M4">
-        <v>0.129</v>
+        <v>0.111</v>
       </c>
       <c r="N4">
-        <v>0.116</v>
+        <v>-0.183</v>
       </c>
       <c r="O4">
-        <v>0.945</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>-1.391</v>
+        <v>-0.152</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
-        <v>0.199</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
-        <v>0.514</v>
+        <v>0.729</v>
       </c>
       <c r="F5">
-        <v>-0.064</v>
+        <v>0.202</v>
       </c>
       <c r="G5">
-        <v>0.765</v>
+        <v>0.35</v>
       </c>
       <c r="H5">
-        <v>-0.006</v>
+        <v>0.099</v>
       </c>
       <c r="I5">
-        <v>0.981</v>
+        <v>0.633</v>
       </c>
       <c r="J5">
-        <v>0.38</v>
+        <v>-0.288</v>
       </c>
       <c r="K5">
-        <v>0.194</v>
+        <v>0.221</v>
       </c>
       <c r="L5">
-        <v>-0.154</v>
+        <v>-0.076</v>
       </c>
       <c r="M5">
-        <v>0.516</v>
+        <v>0.73</v>
       </c>
       <c r="N5">
-        <v>0.077</v>
+        <v>0.215</v>
       </c>
       <c r="O5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>-0.347</v>
-      </c>
-      <c r="C6">
-        <v>0.006</v>
-      </c>
-      <c r="D6">
-        <v>-0.004</v>
-      </c>
-      <c r="E6">
-        <v>0.982</v>
-      </c>
-      <c r="F6">
-        <v>0.298</v>
-      </c>
-      <c r="G6">
-        <v>0.245</v>
-      </c>
-      <c r="H6">
-        <v>0.064</v>
-      </c>
-      <c r="I6">
-        <v>0.784</v>
-      </c>
-      <c r="J6">
-        <v>0.036</v>
-      </c>
-      <c r="K6">
-        <v>0.903</v>
-      </c>
-      <c r="L6">
-        <v>-0.182</v>
-      </c>
-      <c r="M6">
-        <v>0.277</v>
-      </c>
-      <c r="N6">
-        <v>0.219</v>
-      </c>
-      <c r="O6">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>-0.213</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1.101</v>
-      </c>
-      <c r="E7">
-        <v>0.002</v>
-      </c>
-      <c r="F7">
-        <v>-0.113</v>
-      </c>
-      <c r="G7">
-        <v>0.785</v>
-      </c>
-      <c r="H7">
-        <v>-0.249</v>
-      </c>
-      <c r="I7">
-        <v>0.488</v>
-      </c>
-      <c r="J7">
-        <v>-0.251</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7">
-        <v>0.073</v>
-      </c>
-      <c r="M7">
-        <v>0.884</v>
+        <v>0.464</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1389,78 +1098,78 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.603</v>
+        <v>0.148</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.365</v>
+        <v>0.317</v>
       </c>
       <c r="E2">
-        <v>0.08699999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="F2">
-        <v>0.676</v>
+        <v>0.414</v>
       </c>
       <c r="G2">
-        <v>0.494</v>
+        <v>0.001</v>
       </c>
       <c r="H2">
-        <v>-0.351</v>
+        <v>-0.114</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="J2">
-        <v>-0.644</v>
+        <v>-0.196</v>
       </c>
       <c r="K2">
         <v>0.001</v>
       </c>
       <c r="L2">
-        <v>-0.644</v>
+        <v>-0.196</v>
       </c>
       <c r="M2">
         <v>0.001</v>
@@ -1468,206 +1177,124 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.104</v>
+        <v>0.114</v>
       </c>
       <c r="C3">
-        <v>0.546</v>
+        <v>0.046</v>
       </c>
       <c r="D3">
-        <v>0.112</v>
+        <v>0.244</v>
       </c>
       <c r="E3">
-        <v>0.158</v>
+        <v>0.039</v>
       </c>
       <c r="F3">
-        <v>0.092</v>
+        <v>0.246</v>
       </c>
       <c r="G3">
-        <v>0.304</v>
+        <v>0.117</v>
       </c>
       <c r="H3">
-        <v>-0.057</v>
+        <v>-0.068</v>
       </c>
       <c r="I3">
-        <v>0.977</v>
+        <v>0.001</v>
       </c>
       <c r="J3">
-        <v>-0.022</v>
+        <v>-0.089</v>
       </c>
       <c r="K3">
-        <v>0.892</v>
+        <v>0.485</v>
       </c>
       <c r="L3">
-        <v>-0.022</v>
+        <v>-0.089</v>
       </c>
       <c r="M3">
-        <v>0.892</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>0.129</v>
+        <v>0.165</v>
       </c>
       <c r="C4">
-        <v>0.096</v>
+        <v>0.005</v>
       </c>
       <c r="D4">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="E4">
-        <v>0.226</v>
+        <v>0.005</v>
       </c>
       <c r="F4">
-        <v>0.048</v>
+        <v>0.283</v>
       </c>
       <c r="G4">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
       <c r="H4">
-        <v>-0.277</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="I4">
-        <v>0.042</v>
+        <v>0.001</v>
       </c>
       <c r="J4">
-        <v>-0.09</v>
+        <v>-0.108</v>
       </c>
       <c r="K4">
-        <v>0.128</v>
+        <v>0.103</v>
       </c>
       <c r="L4">
-        <v>-0.09</v>
+        <v>-0.108</v>
       </c>
       <c r="M4">
-        <v>0.128</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0.283</v>
+        <v>0.124</v>
       </c>
       <c r="C5">
+        <v>0.006</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>0.203</v>
+      </c>
+      <c r="G5">
+        <v>0.016</v>
+      </c>
+      <c r="H5">
+        <v>-0.151</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0.216</v>
-      </c>
-      <c r="E5">
-        <v>0.058</v>
-      </c>
-      <c r="F5">
-        <v>0.379</v>
-      </c>
-      <c r="G5">
-        <v>0.005</v>
-      </c>
-      <c r="H5">
-        <v>-0.102</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <v>-0.218</v>
+      </c>
+      <c r="K5">
         <v>0.001</v>
       </c>
-      <c r="J5">
-        <v>-0.156</v>
-      </c>
-      <c r="K5">
-        <v>0.046</v>
-      </c>
       <c r="L5">
-        <v>-0.156</v>
+        <v>-0.218</v>
       </c>
       <c r="M5">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>0.103</v>
-      </c>
-      <c r="C6">
-        <v>0.022</v>
-      </c>
-      <c r="D6">
-        <v>0.184</v>
-      </c>
-      <c r="E6">
-        <v>0.016</v>
-      </c>
-      <c r="F6">
-        <v>0.163</v>
-      </c>
-      <c r="G6">
-        <v>0.138</v>
-      </c>
-      <c r="H6">
-        <v>-0.014</v>
-      </c>
-      <c r="I6">
-        <v>0.371</v>
-      </c>
-      <c r="J6">
-        <v>-0.056</v>
-      </c>
-      <c r="K6">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="L6">
-        <v>-0.056</v>
-      </c>
-      <c r="M6">
-        <v>0.6889999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0.16</v>
-      </c>
-      <c r="C7">
-        <v>0.099</v>
-      </c>
-      <c r="D7">
-        <v>0.194</v>
-      </c>
-      <c r="E7">
-        <v>0.023</v>
-      </c>
-      <c r="F7">
-        <v>0.166</v>
-      </c>
-      <c r="G7">
-        <v>0.028</v>
-      </c>
-      <c r="H7">
-        <v>-0.083</v>
-      </c>
-      <c r="I7">
-        <v>0.015</v>
-      </c>
-      <c r="J7">
-        <v>-0.198</v>
-      </c>
-      <c r="K7">
-        <v>0.001</v>
-      </c>
-      <c r="L7">
-        <v>-0.198</v>
-      </c>
-      <c r="M7">
         <v>0.001</v>
       </c>
     </row>
